--- a/downloaded_files/EECS100_Tutorial-35757.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35757.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى طارق عوض مرعى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Tarek Awad Ali Marei</x:t>
   </x:si>
   <x:si>
     <x:t>1230046</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1160,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4218979514</x:v>
+        <x:v>45921.0779351852</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.1400221412</x:v>
+        <x:v>45907.4218979514</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.1593230324</x:v>
+        <x:v>45913.1400221412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4207461806</x:v>
+        <x:v>45913.1593230324</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.1473011921</x:v>
+        <x:v>45907.4207461806</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4211010764</x:v>
+        <x:v>45913.1473011921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4200277778</x:v>
+        <x:v>45907.4211010764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.420124537</x:v>
+        <x:v>45907.4200277778</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4201373495</x:v>
+        <x:v>45907.420124537</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4211555208</x:v>
+        <x:v>45907.4201373495</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.4211555208</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Tutorial-35757.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35757.xlsx
@@ -168,15 +168,6 @@
     <x:t>Seif Eldein Tarek Farouk Abd El Aziz Marzouk</x:t>
   </x:si>
   <x:si>
-    <x:t>1230066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على اشرف على حسن السنان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230073</x:t>
   </x:si>
   <x:si>
@@ -211,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالرحمن عبدالحميد هليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Abdelrahman Abdelhamid Heliel</x:t>
   </x:si>
   <x:si>
     <x:t>1230266</x:t>
@@ -672,7 +672,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.570625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1233,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.1400221412</x:v>
+        <x:v>45913.1593230324</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.1593230324</x:v>
+        <x:v>45907.4207461806</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4207461806</x:v>
+        <x:v>45913.1473011921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.1473011921</x:v>
+        <x:v>45907.4211010764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4211010764</x:v>
+        <x:v>45922.9207386921</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/EECS100_Tutorial-35757.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35757.xlsx
@@ -87,6 +87,15 @@
     <x:t>alfred hany</x:t>
   </x:si>
   <x:si>
+    <x:t>1230019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنيه اسماعيل حسن يحيي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omnia ismail hassan yehia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230162</x:t>
   </x:si>
   <x:si>
@@ -130,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Rozana Ahmed Mohamed Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رويدا احمد ابوالفتوح عبدالغني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rowida Ahmed Aboelfotouh</x:t>
   </x:si>
   <x:si>
     <x:t>1230040</x:t>
@@ -945,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4212832523</x:v>
+        <x:v>45924.0059912037</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4315248032</x:v>
+        <x:v>45907.4212832523</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.420615162</x:v>
+        <x:v>45907.4315248032</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.141978669</x:v>
+        <x:v>45907.420615162</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4224560185</x:v>
+        <x:v>45913.141978669</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45917.0120167824</x:v>
+        <x:v>45909.4224560185</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/EECS100_Tutorial-35757.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35757.xlsx
@@ -192,7 +192,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>
@@ -228,7 +228,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>

--- a/downloaded_files/EECS100_Tutorial-35757.xlsx
+++ b/downloaded_files/EECS100_Tutorial-35757.xlsx
@@ -120,7 +120,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230180</x:t>
